--- a/Mini_Project2/cal1.xlsx
+++ b/Mini_Project2/cal1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\skaplan1\Documents\GitHub\PIE_FA2021\Mini_Project2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D10DB110-36CB-464C-9899-05A7052722F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EC97463-F562-4D54-B1AA-813C369BCB2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{B74219B4-67D2-4BBD-BD74-0B877B626727}"/>
   </bookViews>
@@ -92,6 +92,1030 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.1557305336832895E-2"/>
+                  <c:y val="-0.50877333041703121"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$3:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$B$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>545</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>414</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>287</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>214</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>57</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B1D7-4CF7-9E46-0763E557E90D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="221648704"/>
+        <c:axId val="221647456"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="221648704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="221647456"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="221647456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="221648704"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97993E7C-9D41-4E0F-A138-8018AA4E1164}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -393,8 +1417,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA0BC9B5-224A-4C09-B3C5-DE6B8F2D5EFD}">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -540,5 +1564,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Mini_Project2/cal1.xlsx
+++ b/Mini_Project2/cal1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\skaplan1\Documents\GitHub\PIE_FA2021\Mini_Project2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\git\PIE_FA2021\Mini_Project2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EC97463-F562-4D54-B1AA-813C369BCB2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10F4F3F6-1C28-4FE0-953A-3827295D7AAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{B74219B4-67D2-4BBD-BD74-0B877B626727}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{B74219B4-67D2-4BBD-BD74-0B877B626727}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,12 +34,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
   <si>
     <t>value</t>
   </si>
   <si>
     <t>distance (in)</t>
+  </si>
+  <si>
+    <t>distance (cm)</t>
   </si>
 </sst>
 </file>
@@ -145,8 +148,131 @@
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$3:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$B$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>545</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>414</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>287</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>214</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>57</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-DBF5-4C56-B23E-AEF55050DAEF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
           <c:idx val="0"/>
-          <c:order val="0"/>
+          <c:order val="1"/>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:noFill/>
@@ -185,8 +311,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-1.1557305336832895E-2"/>
-                  <c:y val="-0.50877333041703121"/>
+                  <c:x val="-9.3488626421697803E-3"/>
+                  <c:y val="-0.51438609049466899"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -330,7 +456,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B1D7-4CF7-9E46-0763E557E90D}"/>
+              <c16:uniqueId val="{00000004-DBF5-4C56-B23E-AEF55050DAEF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -469,6 +595,563 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>IR Analog Value vs. Distance</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>value</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.13546478565179348"/>
+                  <c:y val="-0.31021617089530473"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="2400" baseline="0"/>
+                      <a:t>y = 6722.2x</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="2400" baseline="30000"/>
+                      <a:t>-0.899</a:t>
+                    </a:r>
+                    <a:br>
+                      <a:rPr lang="en-US" sz="2400" baseline="0"/>
+                    </a:br>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="2400" baseline="0"/>
+                      <a:t>R² = 0.9488</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US" sz="2400"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="1">
+                  <c:v>12.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>38.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>63.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>76.2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>88.9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>101.6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>114.3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>139.69999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>152.4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>165.1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>177.8</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>190.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$2:$F$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>545</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>414</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>287</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>214</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>57</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0352-41A5-BE4D-64E2D61087C1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1336683744"/>
+        <c:axId val="1336683328"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1336683744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Distance from box face (cm)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1336683328"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1336683328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>IR analog value</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1336683744"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1081,16 +1764,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>61912</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>158750</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>163512</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>138112</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>55562</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1110,6 +1793,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9EB89D2-33BB-4ECE-972F-6A47F3F16E05}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1415,150 +2134,281 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA0BC9B5-224A-4C09-B3C5-DE6B8F2D5EFD}">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R9" sqref="R9"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.7265625" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0.5</v>
       </c>
       <c r="B2">
         <v>3</v>
       </c>
+      <c r="F2">
+        <f>B2</f>
+        <v>3</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>5</v>
       </c>
       <c r="B3">
         <v>545</v>
       </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E17" si="0">A3*2.54</f>
+        <v>12.7</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F17" si="1">B3</f>
+        <v>545</v>
+      </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>10</v>
       </c>
       <c r="B4">
         <v>414</v>
       </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>25.4</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="1"/>
+        <v>414</v>
+      </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>15</v>
       </c>
       <c r="B5">
         <v>287</v>
       </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>38.1</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="1"/>
+        <v>287</v>
+      </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>20</v>
       </c>
       <c r="B6">
         <v>214</v>
       </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>50.8</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>214</v>
+      </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>25</v>
       </c>
       <c r="B7">
         <v>180</v>
       </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>63.5</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>180</v>
+      </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>30</v>
       </c>
       <c r="B8">
         <v>144</v>
       </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>76.2</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>144</v>
+      </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>35</v>
       </c>
       <c r="B9">
         <v>109</v>
       </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>88.9</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>109</v>
+      </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>40</v>
       </c>
       <c r="B10">
         <v>105</v>
       </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>101.6</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>105</v>
+      </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>45</v>
       </c>
       <c r="B11">
         <v>89</v>
       </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>114.3</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>89</v>
+      </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>50</v>
       </c>
       <c r="B12">
         <v>77</v>
       </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>127</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>77</v>
+      </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>55</v>
       </c>
       <c r="B13">
         <v>85</v>
       </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>139.69999999999999</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>85</v>
+      </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>60</v>
       </c>
       <c r="B14">
         <v>81</v>
       </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>152.4</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="1"/>
+        <v>81</v>
+      </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>65</v>
       </c>
       <c r="B15">
         <v>61</v>
       </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>165.1</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="1"/>
+        <v>61</v>
+      </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>70</v>
       </c>
       <c r="B16">
         <v>62</v>
       </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>177.8</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="1"/>
+        <v>62</v>
+      </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>75</v>
       </c>
       <c r="B17">
+        <v>57</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>190.5</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="1"/>
         <v>57</v>
       </c>
     </row>
